--- a/Symphony/2021/JULY/All Details/17.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/JULY/All Details/17.07.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="222">
   <si>
     <t>Date</t>
   </si>
@@ -769,9 +769,6 @@
     <t>Murad</t>
   </si>
   <si>
-    <t>Jafor bKash(-)</t>
-  </si>
-  <si>
     <t>Harun Barioa</t>
   </si>
   <si>
@@ -787,10 +784,13 @@
     <t>17.07.2021</t>
   </si>
   <si>
-    <t>Date: 17.07.2021</t>
+    <t xml:space="preserve">Mokul </t>
   </si>
   <si>
-    <t xml:space="preserve">Mokul </t>
+    <t>Date: 18.07.2021</t>
+  </si>
+  <si>
+    <t>18.07.2021</t>
   </si>
 </sst>
 </file>
@@ -5006,7 +5006,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5346,7 +5346,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="354"/>
       <c r="B20" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="37">
         <v>0</v>
@@ -5365,7 +5365,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="354"/>
       <c r="B21" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
@@ -5383,9 +5383,15 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="354"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="37">
+        <v>3100000</v>
+      </c>
+      <c r="D22" s="159">
+        <v>3100000</v>
+      </c>
       <c r="E22" s="39">
         <f t="shared" si="0"/>
         <v>8984</v>
@@ -6151,11 +6157,11 @@
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
-        <v>2697463</v>
+        <v>5797463</v>
       </c>
       <c r="D83" s="39">
         <f>SUM(D5:D77)</f>
-        <v>2688479</v>
+        <v>5788479</v>
       </c>
       <c r="E83" s="63">
         <f>E71</f>
@@ -6185,9 +6191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="17" spans="1:23" s="21" customFormat="1">
       <c r="A17" s="120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="128">
         <v>1500</v>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="18" spans="1:23" s="21" customFormat="1">
       <c r="A18" s="120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="128">
         <v>500</v>
@@ -6864,7 +6870,9 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" s="21" customFormat="1">
-      <c r="A19" s="120"/>
+      <c r="A19" s="120" t="s">
+        <v>221</v>
+      </c>
       <c r="B19" s="128"/>
       <c r="C19" s="121"/>
       <c r="D19" s="129"/>
@@ -9379,11 +9387,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9398,6 +9401,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -11177,7 +11185,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="244" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="93">
         <v>1006135</v>
@@ -11289,7 +11297,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="244" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="93">
         <v>804870</v>
@@ -13594,7 +13602,7 @@
         <v>1110</v>
       </c>
       <c r="E40" s="237" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="191"/>
       <c r="G40" s="204"/>
@@ -14222,7 +14230,7 @@
         <v>591600</v>
       </c>
       <c r="E46" s="249" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F46" s="190"/>
       <c r="G46" s="197"/>
@@ -14954,7 +14962,7 @@
         <v>45540</v>
       </c>
       <c r="E52" s="239" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" s="191"/>
       <c r="G52" s="197"/>
@@ -15076,7 +15084,7 @@
         <v>52715</v>
       </c>
       <c r="E53" s="241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F53" s="191"/>
       <c r="G53" s="197"/>
@@ -17640,7 +17648,7 @@
         <v>12730</v>
       </c>
       <c r="E75" s="241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F75" s="191"/>
       <c r="G75" s="197"/>
@@ -18538,17 +18546,17 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="301" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B83" s="99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" s="165"/>
       <c r="D83" s="284">
         <v>4000</v>
       </c>
       <c r="E83" s="239" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F83" s="193"/>
       <c r="G83" s="197"/>
@@ -18659,14 +18667,14 @@
     <row r="84" spans="1:97">
       <c r="A84" s="301"/>
       <c r="B84" s="99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C84" s="165"/>
       <c r="D84" s="284">
         <v>5000</v>
       </c>
       <c r="E84" s="240" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F84" s="193"/>
       <c r="G84" s="197"/>
@@ -21409,7 +21417,7 @@
         <v>144</v>
       </c>
       <c r="B110" s="99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C110" s="165"/>
       <c r="D110" s="284">
@@ -32641,8 +32649,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32756,14 +32764,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>6535594.1050000004</v>
+        <v>7437786.2007142799</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="53">
         <v>200000</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -32792,7 +32800,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="67">
-        <v>141125.91142857133</v>
+        <v>165244.31142857127</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="65" t="s">
@@ -32836,7 +32844,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="158">
-        <v>853324</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -32942,14 +32950,14 @@
       </c>
       <c r="B10" s="71">
         <f>B6-B8-B9</f>
-        <v>114750.91142857133</v>
+        <v>138869.31142857127</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="68">
-        <v>39560</v>
+        <v>45000</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="53"/>
@@ -33015,12 +33023,8 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="166" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="71">
-        <v>1440000</v>
-      </c>
+      <c r="A12" s="166"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="66"/>
       <c r="D12" s="181"/>
       <c r="E12" s="180"/>
@@ -33094,7 +33098,7 @@
       </c>
       <c r="B14" s="70">
         <f>B5+B6-B8-B9-B12</f>
-        <v>6674750.9114285717</v>
+        <v>8138869.3114285711</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
@@ -33102,12 +33106,12 @@
       </c>
       <c r="E14" s="69">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>6674750.9114285717</v>
+        <v>6729059.0071428502</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="159">
         <f>B14-E14</f>
-        <v>0</v>
+        <v>1409810.3042857209</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="8"/>
@@ -38391,7 +38395,7 @@
       </c>
       <c r="D1" s="333">
         <f ca="1">TODAY()</f>
-        <v>44394</v>
+        <v>44395</v>
       </c>
     </row>
     <row r="2" spans="1:7">
